--- a/LyndaTestAutomationFramework/LyndaTestAutomationFramework/Tests/Public_lpAcctData.xlsx
+++ b/LyndaTestAutomationFramework/LyndaTestAutomationFramework/Tests/Public_lpAcctData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>TestFname-a@mailinator.com</t>
   </si>
@@ -28,6 +28,36 @@
   </si>
   <si>
     <t>TestFname-d@mailinator.com</t>
+  </si>
+  <si>
+    <t>GroupCode</t>
+  </si>
+  <si>
+    <t>UserEmail</t>
+  </si>
+  <si>
+    <t>UserStatus</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>lpuser-5-23-2012-55611</t>
+  </si>
+  <si>
+    <t>lpuser-5-23-2012-55645</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>lpuser-5-23-2012-55681</t>
+  </si>
+  <si>
+    <t>lpuser-5-23-2012-55713</t>
   </si>
 </sst>
 </file>
@@ -366,48 +396,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C4"/>
+  <dimension ref="B1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E11" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1">
-        <v>38105</v>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>38174</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>38105</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>38174</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
       </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>38105</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>38174</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>38105</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>38174</v>
+      </c>
+      <c r="C5" t="s">
         <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
